--- a/Benchmark_System/MAXIMUM SENSITIVITY/Multiple Equal Poles 4/Multiple Equal Poles4_ms14_latex.xlsx
+++ b/Benchmark_System/MAXIMUM SENSITIVITY/Multiple Equal Poles 4/Multiple Equal Poles4_ms14_latex.xlsx
@@ -78,25 +78,25 @@
     <t>PID</t>
   </si>
   <si>
-    <t>$C(s) =\frac{9.976\,s^2+6.582\,s+2.221}{0.03694\,s^2+2.951\,s}$</t>
+    <t>$C(s) =\frac{9.055\,s^2+6.119\,s+2.114}{0.03276\,s^2+2.883\,s}$</t>
   </si>
   <si>
     <t>IPD</t>
   </si>
   <si>
-    <t>$C_1(s) =\frac{2.266}{s}$  $C_2(s) =\frac{5.8\,s+5.096}{0.01114\,s+1.0}$</t>
+    <t>$C_1(s) =\frac{2.246}{s}$  $C_2(s) =\frac{5.843\,s+5.081}{0.0109\,s+1.0}$</t>
   </si>
   <si>
     <t>DPI</t>
   </si>
   <si>
-    <t>$C_1(s) =3.3523$  $C_2(s) =\frac{0.4593}{s}$  $C_3(s) =\frac{4.288\,s}{0.01136\,s+1.0}$</t>
+    <t>$C_1(s) =3.2237$  $C_2(s) =\frac{0.452}{s}$  $C_3(s) =\frac{4.121\,s}{0.01048\,s+1.0}$</t>
   </si>
   <si>
     <t>PIDA</t>
   </si>
   <si>
-    <t>$C(s) =\frac{33.26\,s^4+92.11\,s^3+135.7\,s^2+85.86\,s+21.42}{0.0001646\,s^4+0.03023\,s^3+1.428\,s^2+3.614\,s}$</t>
+    <t>$C(s) =\frac{24.02\,s^4+67.27\,s^3+92.88\,s^2+56.23\,s+13.47}{0.0001724\,s^4+0.03145\,s^3+1.477\,s^2+3.783\,s}$</t>
   </si>
 </sst>
 </file>
@@ -149,8 +149,8 @@
   <cols>
     <col min="1" max="1" width="26" customWidth="true"/>
     <col min="2" max="2" width="56" customWidth="true"/>
-    <col min="3" max="3" width="62" customWidth="true"/>
-    <col min="4" max="4" width="74.7109375" customWidth="true"/>
+    <col min="3" max="3" width="63" customWidth="true"/>
+    <col min="4" max="4" width="73.7109375" customWidth="true"/>
     <col min="5" max="5" width="99.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -193,16 +193,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.0439875032088586</v>
+        <v>2.0392811861552365</v>
       </c>
       <c r="C3">
-        <v>3.4650136929652535</v>
+        <v>3.4629392781932751</v>
       </c>
       <c r="D3">
-        <v>2.6521612855873262</v>
+        <v>2.6485000625538451</v>
       </c>
       <c r="E3">
-        <v>0.61274161405073269</v>
+        <v>0.58944185053856268</v>
       </c>
     </row>
     <row r="4">
@@ -210,16 +210,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2213971546659899</v>
+        <v>2.1138912544393529</v>
       </c>
       <c r="C4">
-        <v>5.0962161423939998</v>
+        <v>5.0807557081056283</v>
       </c>
       <c r="D4">
-        <v>3.3523004794773699</v>
+        <v>3.2237244627230139</v>
       </c>
       <c r="E4">
-        <v>21.416673262379501</v>
+        <v>13.47460923734595</v>
       </c>
     </row>
     <row r="5">
@@ -227,16 +227,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.9505849689909698</v>
+        <v>2.8834719717798873</v>
       </c>
       <c r="C5">
-        <v>2.24912310129299</v>
+        <v>2.2624093313236404</v>
       </c>
       <c r="D5">
-        <v>7.2990165730309204</v>
+        <v>7.1318483490521212</v>
       </c>
       <c r="E5">
-        <v>3.61413835410836</v>
+        <v>3.7828749099864116</v>
       </c>
     </row>
     <row r="6">
@@ -244,16 +244,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.5095795559368601</v>
+        <v>1.4741282379144907</v>
       </c>
       <c r="C6">
-        <v>1.1270175529762001</v>
+        <v>1.139169597234146</v>
       </c>
       <c r="D6">
-        <v>1.2791953139946499</v>
+        <v>1.2782253108819632</v>
       </c>
       <c r="E6">
-        <v>1.3553534766300399</v>
+        <v>1.4295808183693488</v>
       </c>
     </row>
     <row r="7">
@@ -261,7 +261,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1.1516889932737699</v>
+        <v>1.2794941045644952</v>
       </c>
     </row>
     <row r="8">
@@ -303,16 +303,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>120.579985475212</v>
+        <v>129.73728728622714</v>
       </c>
       <c r="C10">
-        <v>101.17420321050299</v>
+        <v>104.54463192621789</v>
       </c>
       <c r="D10">
-        <v>112.581389180334</v>
+        <v>121.9116561394128</v>
       </c>
       <c r="E10">
-        <v>3.6338942316330902</v>
+        <v>3.8834025069238201</v>
       </c>
     </row>
     <row r="11">
@@ -320,7 +320,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>104.222112570915</v>
+        <v>115.01070354294002</v>
       </c>
     </row>
     <row r="12">
@@ -328,16 +328,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.837973514303749</v>
+        <v>1.7691887389120702</v>
       </c>
       <c r="C12">
-        <v>1.6838765648852347</v>
+        <v>1.6584790278479236</v>
       </c>
       <c r="D12">
-        <v>2.0022056103563566</v>
+        <v>1.956478738785933</v>
       </c>
       <c r="E12">
-        <v>1.8440380491387349</v>
+        <v>1.5952437695485573</v>
       </c>
     </row>
     <row r="13">
@@ -345,16 +345,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.4625963086474481</v>
+        <v>1.5424828499625853</v>
       </c>
       <c r="C13">
-        <v>2.2274406149948285</v>
+        <v>2.2562564346776854</v>
       </c>
       <c r="D13">
-        <v>1.8271569885991867</v>
+        <v>1.8699321704864649</v>
       </c>
       <c r="E13">
-        <v>0.28691656669226961</v>
+        <v>0.38201809987273588</v>
       </c>
     </row>
     <row r="14">
@@ -362,16 +362,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.4452983390401677</v>
+        <v>9.798614424951829</v>
       </c>
       <c r="C14">
-        <v>15.505506528092418</v>
+        <v>15.377924706427049</v>
       </c>
       <c r="D14">
-        <v>10.784691279583656</v>
+        <v>10.677423657901612</v>
       </c>
       <c r="E14">
-        <v>2.2666061810691298</v>
+        <v>1.8909704245457521</v>
       </c>
     </row>
     <row r="15">
@@ -379,16 +379,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.89029365734666</v>
+        <v>9.3039135305424292</v>
       </c>
       <c r="C15">
-        <v>9.702386828443089</v>
+        <v>9.7580577738606067</v>
       </c>
       <c r="D15">
-        <v>4.5781344439618898</v>
+        <v>4.0576660440209134</v>
       </c>
       <c r="E15">
-        <v>26.953522539115561</v>
+        <v>14.977138472934737</v>
       </c>
     </row>
     <row r="16">
@@ -413,16 +413,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.1089029365734666</v>
+        <v>1.0930391353054243</v>
       </c>
       <c r="C17">
-        <v>1.0970238682844309</v>
+        <v>1.0975805777386061</v>
       </c>
       <c r="D17">
-        <v>1.0457813444396244</v>
+        <v>1.0405766604402069</v>
       </c>
       <c r="E17">
-        <v>1.2695352253911556</v>
+        <v>1.1497713847293474</v>
       </c>
     </row>
     <row r="18">
@@ -430,16 +430,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.1411213950053329</v>
+        <v>3.2625679595441017</v>
       </c>
       <c r="C18">
-        <v>8.6201698495427426</v>
+        <v>8.5820543076021991</v>
       </c>
       <c r="D18">
-        <v>8.1989247298599306</v>
+        <v>8.3214051837299294</v>
       </c>
       <c r="E18">
-        <v>0.68689807805758873</v>
+        <v>0.85058340055041948</v>
       </c>
     </row>
     <row r="19">
@@ -447,16 +447,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.2491408423042318</v>
+        <v>3.459312148145147</v>
       </c>
       <c r="C19">
-        <v>2.599412200892778</v>
+        <v>2.6505218960245864</v>
       </c>
       <c r="D19">
-        <v>2.0304795943269265</v>
+        <v>2.0849063265616592</v>
       </c>
       <c r="E19">
-        <v>7.522314907195752</v>
+        <v>10.695276515964114</v>
       </c>
     </row>
     <row r="20">
@@ -464,16 +464,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>59.153034547374247</v>
+        <v>62.673020715848004</v>
       </c>
       <c r="C20">
-        <v>58.128767214506816</v>
+        <v>58.16273038595746</v>
       </c>
       <c r="D20">
-        <v>69.367761718170513</v>
+        <v>69.237711988083632</v>
       </c>
       <c r="E20">
-        <v>40.577687315818096</v>
+        <v>51.02403582268694</v>
       </c>
     </row>
   </sheetData>
